--- a/МойТест_3.xlsx
+++ b/МойТест_3.xlsx
@@ -8,7 +8,6 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MyGameDesign" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MyGameDesign_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MyGameDesign_21" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -59,7 +58,7 @@
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00000000"/>
+      <color rgb="00FF0000"/>
       <sz val="10"/>
       <u val="single"/>
     </font>
@@ -67,8 +66,8 @@
       <name val="Calibri"/>
       <b val="1"/>
       <color rgb="00FF0000"/>
-      <sz val="10"/>
-      <u val="single"/>
+      <sz val="14"/>
+      <u val="double"/>
     </font>
   </fonts>
   <fills count="4">
@@ -426,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -472,11 +471,6 @@
           <t>Фамилия</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -505,11 +499,6 @@
           <t>Имя</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -538,11 +527,6 @@
           <t>Отчество</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Отчество</t>
-        </is>
-      </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -571,11 +555,6 @@
           <t>Год рождения</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Год рождения</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -600,11 +579,6 @@
         <v>1900</v>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Зарплата</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>Зарплата</t>
         </is>
@@ -622,7 +596,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ПОШЛЕМ ТРВ НА ХУЙ</t>
+          <t>ПОШЛЕМ ТРВ</t>
         </is>
       </c>
     </row>
@@ -668,60 +642,6 @@
         </is>
       </c>
       <c r="E12" t="inlineStr">
-        <is>
-          <t>строку</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ПОШЛЕМ ТРВ НА ХУЙ</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Запишем</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>все</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>в</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>одну</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>строку</t>
         </is>
@@ -738,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,131 +667,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>один_4</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>один_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>два_4</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
-        <is>
-          <t>два_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>три_4</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>три_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>четыре_4</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>четыре_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>пять_4</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>пять_5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A1" s="5" t="n"/>
       <c r="B1" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="6" t="n"/>
+      <c r="B2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <f>SUM(A1:A5)</f>
-        <v/>
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>СУММА:</t>
+        </is>
       </c>
       <c r="B6">
         <f>SUM(B1:B5)</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>SUM(C1:C5)</f>
         <v/>
       </c>
     </row>

--- a/МойТест_3.xlsx
+++ b/МойТест_3.xlsx
@@ -1,78 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="855" windowWidth="28215" windowHeight="11670" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="390" yWindow="855" windowWidth="28215" windowHeight="11670"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MyGameDesign" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MyGameDesign_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MyGameDesign" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Год рождения</t>
+  </si>
+  <si>
+    <t>Зарплата</t>
+  </si>
+  <si>
+    <t>Волотовский</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>Титовец</t>
+  </si>
+  <si>
+    <t>Руслан</t>
+  </si>
+  <si>
+    <t>Викторович</t>
+  </si>
+  <si>
+    <t>Злобин</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>ПОШЛЕМ ТРВ</t>
+  </si>
+  <si>
+    <t>Запишем</t>
+  </si>
+  <si>
+    <t>все</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>одну</t>
+  </si>
+  <si>
+    <t>строку</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFF00"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <family val="1"/>
-      <color theme="1"/>
-      <sz val="14"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="000000FF"/>
-      <sz val="12"/>
-      <u val="double"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="00FF0000"/>
-      <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="00FF0000"/>
-      <sz val="14"/>
-      <u val="double"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,21 +165,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -420,310 +466,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="32.28515625" customWidth="1" min="1" max="1"/>
-    <col width="23.140625" customWidth="1" min="2" max="2"/>
-    <col width="25.7109375" customWidth="1" min="3" max="3"/>
-    <col width="30.7109375" customWidth="1" min="4" max="4"/>
-    <col width="32.140625" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Отчество</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Год рождения</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Зарплата</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Волотовский</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Сергей</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Николаевич</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
         <v>1989</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>1800</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Иван</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Сергеевич</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
         <v>1990</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>2000</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Отчество</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Титовец</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Руслан</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Викторович</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
         <v>1986</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>2500</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Год рождения</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Злобин</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Роман</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Сергеевич</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
         <v>1988</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>1900</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Зарплата</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="4" t="n">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
         <v>8200</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ПОШЛЕМ ТРВ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Запишем</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>все</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>в</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>одну</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>строку</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="n"/>
-      <c r="B1" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="n"/>
-      <c r="B2" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n"/>
-      <c r="B5" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>СУММА:</t>
-        </is>
-      </c>
-      <c r="B6">
-        <f>SUM(B1:B5)</f>
-        <v/>
-      </c>
-      <c r="C6">
-        <f>SUM(C1:C5)</f>
-        <v/>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/МойТест_3.xlsx
+++ b/МойТест_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Фамилия</t>
   </si>
@@ -62,24 +62,6 @@
   </si>
   <si>
     <t>Роман</t>
-  </si>
-  <si>
-    <t>ПОШЛЕМ ТРВ</t>
-  </si>
-  <si>
-    <t>Запишем</t>
-  </si>
-  <si>
-    <t>все</t>
-  </si>
-  <si>
-    <t>в</t>
-  </si>
-  <si>
-    <t>одну</t>
-  </si>
-  <si>
-    <t>строку</t>
   </si>
 </sst>
 </file>
@@ -467,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F1" sqref="F1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,7 +464,7 @@
     <col min="5" max="5" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,23 +480,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -530,23 +497,8 @@
       <c r="E2" s="2">
         <v>1800</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -562,23 +514,8 @@
       <c r="E3" s="2">
         <v>2000</v>
       </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -594,23 +531,8 @@
       <c r="E4" s="2">
         <v>2500</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -626,23 +548,8 @@
       <c r="E5" s="2">
         <v>1900</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -651,221 +558,6 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/МойТест_3.xlsx
+++ b/МойТест_3.xlsx
@@ -1,108 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="855" windowWidth="28215" windowHeight="11670"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="855" windowWidth="28215" windowHeight="11670" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MyGameDesign" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MyGameDesign" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MyGameDesign_2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Год рождения</t>
-  </si>
-  <si>
-    <t>Зарплата</t>
-  </si>
-  <si>
-    <t>Волотовский</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>Николаевич</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Сергеевич</t>
-  </si>
-  <si>
-    <t>Титовец</t>
-  </si>
-  <si>
-    <t>Руслан</t>
-  </si>
-  <si>
-    <t>Викторович</t>
-  </si>
-  <si>
-    <t>Злобин</t>
-  </si>
-  <si>
-    <t>Роман</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,#0.0"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color rgb="FFFFFF00"/>
       <sz val="14"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="000000FF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="000000FF"/>
+      <sz val="12"/>
+      <u val="double"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,21 +117,604 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Chart- 1</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'MyGameDesign_2'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number- 1</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Chart- 2</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'MyGameDesign_2'!$C$2:$C$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number- 2</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Chart- 3</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'MyGameDesign_2'!$D$2:$D$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number- 3</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Chart- 4</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'MyGameDesign_2'!$E$2:$E$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number- 4</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Chart- 5</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'MyGameDesign_2'!$F$2:$F$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number- 5</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>19</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>19</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>29</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>29</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>29</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,117 +1001,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col width="32.28515625" customWidth="1" min="1" max="1"/>
+    <col width="23.140625" customWidth="1" min="2" max="2"/>
+    <col width="25.7109375" customWidth="1" min="3" max="3"/>
+    <col width="30.7109375" customWidth="1" min="4" max="4"/>
+    <col width="32.140625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Год рождения</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Зарплата</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Волотовский</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Титовец</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Год рождения</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Злобин</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Зарплата</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="4" t="n">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ПОШЛЕМ ТРВ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1989</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1990</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1986</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1988</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4">
-        <v>8200</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Запишем</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>все</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>одну</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>строку</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="n"/>
+      <c r="B1" s="5" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>СУММА:</t>
+        </is>
+      </c>
+      <c r="B7" s="5">
+        <f>SUM(B1:B6)</f>
+        <v/>
+      </c>
+      <c r="C7" s="5">
+        <f>SUM(C1:C6)</f>
+        <v/>
+      </c>
+      <c r="D7" s="5">
+        <f>SUM(D1:D6)</f>
+        <v/>
+      </c>
+      <c r="E7" s="5">
+        <f>SUM(E1:E6)</f>
+        <v/>
+      </c>
+      <c r="F7" s="5">
+        <f>SUM(F1:F6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>МАКС:</t>
+        </is>
+      </c>
+      <c r="B8" s="5">
+        <f>max(B1:B6)</f>
+        <v/>
+      </c>
+      <c r="C8" s="5">
+        <f>max(C1:C6)</f>
+        <v/>
+      </c>
+      <c r="D8" s="5">
+        <f>max(D1:D6)</f>
+        <v/>
+      </c>
+      <c r="E8" s="5">
+        <f>max(E1:E6)</f>
+        <v/>
+      </c>
+      <c r="F8" s="5">
+        <f>max(F1:F6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>СР.ЗНАЧ:</t>
+        </is>
+      </c>
+      <c r="B9" s="8">
+        <f>average(B1:B6)</f>
+        <v/>
+      </c>
+      <c r="C9" s="8">
+        <f>average(C1:C6)</f>
+        <v/>
+      </c>
+      <c r="D9" s="8">
+        <f>average(D1:D6)</f>
+        <v/>
+      </c>
+      <c r="E9" s="8">
+        <f>average(E1:E6)</f>
+        <v/>
+      </c>
+      <c r="F9" s="8">
+        <f>average(F1:F6)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>